--- a/data/trans_dic/P16A18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1002,7 +1002,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
+          <t>Mujeres menores de 55 años que han consumido anticonceptivos en las dos últimas semanas (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A18-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Edad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07891118163135326</v>
+        <v>0.07884990190759018</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1200862667560346</v>
+        <v>0.1233128831021115</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06143606990479654</v>
+        <v>0.05986023047332126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0066535625707408</v>
+        <v>0.005773193964157057</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1326962261802398</v>
+        <v>0.1340571512247654</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1913262826276164</v>
+        <v>0.1967636330746104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1200571250253671</v>
+        <v>0.1177596865325465</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05318458920074703</v>
+        <v>0.05250834339622299</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1295879162427414</v>
+        <v>0.1314489544738106</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1414898620920698</v>
+        <v>0.1402253614425977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08747676164914624</v>
+        <v>0.08909220189418592</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0431361465209914</v>
+        <v>0.04448167368146701</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.18734800464305</v>
+        <v>0.1879212483974537</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2046384661973311</v>
+        <v>0.2045045266861375</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1375742141251426</v>
+        <v>0.1385292497412048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09169052011836429</v>
+        <v>0.09330661251484262</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04952970252986141</v>
+        <v>0.05042943546860341</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05598446774094727</v>
+        <v>0.05520123898128465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03825404067304294</v>
+        <v>0.03810053310110376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0148109176368915</v>
+        <v>0.01414501878787653</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0886563799258939</v>
+        <v>0.08841841226701293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09763873143695392</v>
+        <v>0.09515653909972878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07420064459567292</v>
+        <v>0.0727725976083792</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03707882837106487</v>
+        <v>0.03501576028877407</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.02488916408828058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01616512477812708</v>
+        <v>0.01616512477812709</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01926009276572137</v>
+        <v>0.0192577718180268</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008448982886424979</v>
+        <v>0.008722207936019835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01444488022821682</v>
+        <v>0.01415251978949802</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009218734877909952</v>
+        <v>0.01017491660289303</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05155742769115112</v>
+        <v>0.05081577152343655</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02983499210022781</v>
+        <v>0.03009726496681833</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03918343756292851</v>
+        <v>0.03913630317937184</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02462385644370184</v>
+        <v>0.02592815910587648</v>
       </c>
     </row>
     <row r="16">
@@ -883,7 +883,7 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.07070932798407761</v>
+        <v>0.08204591262573334</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr"/>
@@ -920,16 +920,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08485347423174242</v>
+        <v>0.0844820002930719</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05414850141410672</v>
+        <v>0.05472675519350145</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02281793029578846</v>
+        <v>0.02253686132694101</v>
       </c>
     </row>
     <row r="21">
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1098717759176202</v>
+        <v>0.1102933653142961</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07395056928518276</v>
+        <v>0.07465980919026305</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03719772349992602</v>
+        <v>0.03634967739912502</v>
       </c>
     </row>
     <row r="22">
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>36890</v>
+        <v>36861</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51558</v>
+        <v>52943</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24314</v>
+        <v>23690</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2412</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="7">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62034</v>
+        <v>62670</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>82144</v>
+        <v>84478</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47513</v>
+        <v>46604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19280</v>
+        <v>19035</v>
       </c>
     </row>
     <row r="8">
@@ -1183,16 +1183,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>81056</v>
+        <v>82221</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85910</v>
+        <v>85142</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49297</v>
+        <v>50207</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21486</v>
+        <v>22156</v>
       </c>
     </row>
     <row r="11">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>117185</v>
+        <v>117544</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>124253</v>
+        <v>124171</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77529</v>
+        <v>78067</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45670</v>
+        <v>46475</v>
       </c>
     </row>
     <row r="12">
@@ -1267,16 +1267,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>34163</v>
+        <v>34783</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39618</v>
+        <v>39063</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25301</v>
+        <v>25199</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9203</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="15">
@@ -1287,16 +1287,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61150</v>
+        <v>60986</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>69094</v>
+        <v>67338</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49075</v>
+        <v>48131</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23040</v>
+        <v>21758</v>
       </c>
     </row>
     <row r="16">
@@ -1351,16 +1351,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9931</v>
+        <v>9930</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5188</v>
+        <v>5356</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9376</v>
+        <v>9186</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6781</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="19">
@@ -1371,16 +1371,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26585</v>
+        <v>26203</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18321</v>
+        <v>18482</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25433</v>
+        <v>25402</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18112</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="20">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>4858</v>
+        <v>5637</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>205935</v>
+        <v>205034</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>126305</v>
+        <v>127654</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>52046</v>
+        <v>51405</v>
       </c>
     </row>
     <row r="27">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>266653</v>
+        <v>267676</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>172495</v>
+        <v>174149</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>84845</v>
+        <v>82911</v>
       </c>
     </row>
     <row r="28">
